--- a/www.eia.gov/electricity/monthly/xls/table_5_08.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_5_08.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 5.8. Number of Ultimate Customers Served by Sector by State:</t>
   </si>
   <si>
-    <t>October 2016 and 2015</t>
+    <t>November 2016 and 2015</t>
   </si>
   <si>
     <t/>
@@ -52,10 +52,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>New England</t>
@@ -1291,22 +1291,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="8">
-        <v>6275859</v>
+        <v>6306648</v>
       </c>
       <c r="C5" s="8">
-        <v>6332013</v>
+        <v>6319481</v>
       </c>
       <c r="D5" s="8">
-        <v>876204</v>
+        <v>879887</v>
       </c>
       <c r="E5" s="8">
-        <v>873707</v>
+        <v>872673</v>
       </c>
       <c r="F5" s="8">
-        <v>25881</v>
+        <v>26019</v>
       </c>
       <c r="G5" s="8">
-        <v>26880</v>
+        <v>26679</v>
       </c>
       <c r="H5" s="8">
         <v>6</v>
@@ -1315,10 +1315,10 @@
         <v>7</v>
       </c>
       <c r="J5" s="8">
-        <v>7177950</v>
+        <v>7212560</v>
       </c>
       <c r="K5" s="8">
-        <v>7232607</v>
+        <v>7218840</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,22 +1326,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <v>1490177</v>
+        <v>1492170</v>
       </c>
       <c r="C6" s="10">
-        <v>1470588</v>
+        <v>1471641</v>
       </c>
       <c r="D6" s="10">
-        <v>152631</v>
+        <v>152422</v>
       </c>
       <c r="E6" s="10">
-        <v>150914</v>
+        <v>150687</v>
       </c>
       <c r="F6" s="10">
-        <v>4419</v>
+        <v>4471</v>
       </c>
       <c r="G6" s="10">
-        <v>4398</v>
+        <v>4371</v>
       </c>
       <c r="H6" s="10">
         <v>3</v>
@@ -1350,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="10">
-        <v>1647230</v>
+        <v>1649066</v>
       </c>
       <c r="K6" s="10">
-        <v>1625903</v>
+        <v>1626702</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1361,22 +1361,22 @@
         <v>13</v>
       </c>
       <c r="B7" s="10">
-        <v>685544</v>
+        <v>683198</v>
       </c>
       <c r="C7" s="10">
-        <v>703478</v>
+        <v>660520</v>
       </c>
       <c r="D7" s="10">
-        <v>95800</v>
+        <v>95947</v>
       </c>
       <c r="E7" s="10">
-        <v>98080</v>
+        <v>92275</v>
       </c>
       <c r="F7" s="10">
-        <v>2939</v>
+        <v>2958</v>
       </c>
       <c r="G7" s="10">
-        <v>3028</v>
+        <v>2786</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="10">
-        <v>784283</v>
+        <v>782103</v>
       </c>
       <c r="K7" s="10">
-        <v>804586</v>
+        <v>755581</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,22 +1396,22 @@
         <v>14</v>
       </c>
       <c r="B8" s="10">
-        <v>2730276</v>
+        <v>2761478</v>
       </c>
       <c r="C8" s="10">
-        <v>2793500</v>
+        <v>2828963</v>
       </c>
       <c r="D8" s="10">
-        <v>405675</v>
+        <v>409593</v>
       </c>
       <c r="E8" s="10">
-        <v>405435</v>
+        <v>408119</v>
       </c>
       <c r="F8" s="10">
-        <v>13225</v>
+        <v>13296</v>
       </c>
       <c r="G8" s="10">
-        <v>14105</v>
+        <v>14112</v>
       </c>
       <c r="H8" s="10">
         <v>2</v>
@@ -1420,10 +1420,10 @@
         <v>3</v>
       </c>
       <c r="J8" s="10">
-        <v>3149178</v>
+        <v>3184369</v>
       </c>
       <c r="K8" s="10">
-        <v>3213043</v>
+        <v>3251197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1431,22 +1431,22 @@
         <v>15</v>
       </c>
       <c r="B9" s="10">
-        <v>615564</v>
+        <v>614143</v>
       </c>
       <c r="C9" s="10">
-        <v>612021</v>
+        <v>605971</v>
       </c>
       <c r="D9" s="10">
-        <v>107418</v>
+        <v>106793</v>
       </c>
       <c r="E9" s="10">
-        <v>106657</v>
+        <v>106425</v>
       </c>
       <c r="F9" s="10">
-        <v>3268</v>
+        <v>3256</v>
       </c>
       <c r="G9" s="10">
-        <v>3289</v>
+        <v>3270</v>
       </c>
       <c r="H9" s="10">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="10">
-        <v>726250</v>
+        <v>724192</v>
       </c>
       <c r="K9" s="10">
-        <v>721967</v>
+        <v>715666</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1466,22 +1466,22 @@
         <v>16</v>
       </c>
       <c r="B10" s="10">
-        <v>440971</v>
+        <v>442856</v>
       </c>
       <c r="C10" s="10">
-        <v>439792</v>
+        <v>440169</v>
       </c>
       <c r="D10" s="10">
-        <v>59188</v>
+        <v>59525</v>
       </c>
       <c r="E10" s="10">
-        <v>58859</v>
+        <v>61202</v>
       </c>
       <c r="F10" s="10">
-        <v>1816</v>
+        <v>1824</v>
       </c>
       <c r="G10" s="10">
-        <v>1831</v>
+        <v>1907</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -1490,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="J10" s="10">
-        <v>501976</v>
+        <v>504206</v>
       </c>
       <c r="K10" s="10">
-        <v>500483</v>
+        <v>503279</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1501,22 +1501,22 @@
         <v>17</v>
       </c>
       <c r="B11" s="10">
-        <v>313327</v>
+        <v>312803</v>
       </c>
       <c r="C11" s="10">
-        <v>312634</v>
+        <v>312217</v>
       </c>
       <c r="D11" s="10">
-        <v>55492</v>
+        <v>55607</v>
       </c>
       <c r="E11" s="10">
-        <v>53762</v>
+        <v>53965</v>
       </c>
       <c r="F11" s="10">
         <v>214</v>
       </c>
       <c r="G11" s="10">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H11" s="10">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>369033</v>
+        <v>368624</v>
       </c>
       <c r="K11" s="10">
-        <v>366625</v>
+        <v>366415</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,22 +1536,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="8">
-        <v>15971041</v>
+        <v>15985254</v>
       </c>
       <c r="C12" s="8">
-        <v>15894772</v>
+        <v>15897826</v>
       </c>
       <c r="D12" s="8">
-        <v>2287699</v>
+        <v>2286468</v>
       </c>
       <c r="E12" s="8">
-        <v>2263691</v>
+        <v>2261563</v>
       </c>
       <c r="F12" s="8">
-        <v>42470</v>
+        <v>42431</v>
       </c>
       <c r="G12" s="8">
-        <v>43361</v>
+        <v>43196</v>
       </c>
       <c r="H12" s="8">
         <v>20</v>
@@ -1560,10 +1560,10 @@
         <v>19</v>
       </c>
       <c r="J12" s="8">
-        <v>18301230</v>
+        <v>18314173</v>
       </c>
       <c r="K12" s="8">
-        <v>18201843</v>
+        <v>18202604</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,22 +1571,22 @@
         <v>20</v>
       </c>
       <c r="B13" s="10">
-        <v>3513089</v>
+        <v>3522889</v>
       </c>
       <c r="C13" s="10">
-        <v>3504644</v>
+        <v>3504756</v>
       </c>
       <c r="D13" s="10">
-        <v>516529</v>
+        <v>514807</v>
       </c>
       <c r="E13" s="10">
-        <v>513386</v>
+        <v>514085</v>
       </c>
       <c r="F13" s="10">
-        <v>11837</v>
+        <v>11805</v>
       </c>
       <c r="G13" s="10">
-        <v>12161</v>
+        <v>12114</v>
       </c>
       <c r="H13" s="10">
         <v>6</v>
@@ -1595,10 +1595,10 @@
         <v>19</v>
       </c>
       <c r="J13" s="10">
-        <v>4041461</v>
+        <v>4049507</v>
       </c>
       <c r="K13" s="10">
-        <v>4030197</v>
+        <v>4030961</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,22 +1606,22 @@
         <v>21</v>
       </c>
       <c r="B14" s="10">
-        <v>7117438</v>
+        <v>7119376</v>
       </c>
       <c r="C14" s="10">
         <v>7085540</v>
       </c>
       <c r="D14" s="10">
-        <v>1074463</v>
+        <v>1077184</v>
       </c>
       <c r="E14" s="10">
-        <v>1059037</v>
+        <v>1056076</v>
       </c>
       <c r="F14" s="10">
-        <v>7519</v>
+        <v>7531</v>
       </c>
       <c r="G14" s="10">
-        <v>7647</v>
+        <v>7516</v>
       </c>
       <c r="H14" s="10">
         <v>8</v>
@@ -1630,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="J14" s="10">
-        <v>8199428</v>
+        <v>8204099</v>
       </c>
       <c r="K14" s="10">
-        <v>8152231</v>
+        <v>8149139</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,22 +1641,22 @@
         <v>22</v>
       </c>
       <c r="B15" s="10">
-        <v>5340514</v>
+        <v>5342989</v>
       </c>
       <c r="C15" s="10">
-        <v>5304588</v>
+        <v>5307530</v>
       </c>
       <c r="D15" s="10">
-        <v>696707</v>
+        <v>694477</v>
       </c>
       <c r="E15" s="10">
-        <v>691268</v>
+        <v>691402</v>
       </c>
       <c r="F15" s="10">
-        <v>23114</v>
+        <v>23095</v>
       </c>
       <c r="G15" s="10">
-        <v>23553</v>
+        <v>23566</v>
       </c>
       <c r="H15" s="10">
         <v>6</v>
@@ -1665,10 +1665,10 @@
         <v>6</v>
       </c>
       <c r="J15" s="10">
-        <v>6060341</v>
+        <v>6060567</v>
       </c>
       <c r="K15" s="10">
-        <v>6019415</v>
+        <v>6022504</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1676,22 +1676,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="8">
-        <v>20021917</v>
+        <v>20021928</v>
       </c>
       <c r="C16" s="8">
-        <v>19824091</v>
+        <v>19826950</v>
       </c>
       <c r="D16" s="8">
-        <v>2476735</v>
+        <v>2473603</v>
       </c>
       <c r="E16" s="8">
-        <v>2457704</v>
+        <v>2456184</v>
       </c>
       <c r="F16" s="8">
-        <v>52109</v>
+        <v>51984</v>
       </c>
       <c r="G16" s="8">
-        <v>55108</v>
+        <v>54721</v>
       </c>
       <c r="H16" s="8">
         <v>8</v>
@@ -1700,10 +1700,10 @@
         <v>8</v>
       </c>
       <c r="J16" s="8">
-        <v>22550769</v>
+        <v>22547523</v>
       </c>
       <c r="K16" s="8">
-        <v>22336911</v>
+        <v>22337863</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1711,22 +1711,22 @@
         <v>24</v>
       </c>
       <c r="B17" s="10">
-        <v>5250889</v>
+        <v>5250951</v>
       </c>
       <c r="C17" s="10">
-        <v>5188432</v>
+        <v>5194844</v>
       </c>
       <c r="D17" s="10">
-        <v>606434</v>
+        <v>606251</v>
       </c>
       <c r="E17" s="10">
-        <v>604168</v>
+        <v>603973</v>
       </c>
       <c r="F17" s="10">
-        <v>5509</v>
+        <v>5482</v>
       </c>
       <c r="G17" s="10">
-        <v>6007</v>
+        <v>5980</v>
       </c>
       <c r="H17" s="10">
         <v>3</v>
@@ -1735,10 +1735,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="10">
-        <v>5862835</v>
+        <v>5862687</v>
       </c>
       <c r="K17" s="10">
-        <v>5798610</v>
+        <v>5804800</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1746,22 +1746,22 @@
         <v>25</v>
       </c>
       <c r="B18" s="10">
-        <v>2819471</v>
+        <v>2817625</v>
       </c>
       <c r="C18" s="10">
-        <v>2807711</v>
+        <v>2808903</v>
       </c>
       <c r="D18" s="10">
-        <v>348362</v>
+        <v>347789</v>
       </c>
       <c r="E18" s="10">
-        <v>351024</v>
+        <v>350916</v>
       </c>
       <c r="F18" s="10">
-        <v>17461</v>
+        <v>17419</v>
       </c>
       <c r="G18" s="10">
-        <v>18260</v>
+        <v>18219</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -1770,10 +1770,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="10">
-        <v>3185295</v>
+        <v>3182834</v>
       </c>
       <c r="K18" s="10">
-        <v>3176996</v>
+        <v>3178039</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,22 +1781,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="10">
-        <v>4342304</v>
+        <v>4340339</v>
       </c>
       <c r="C19" s="10">
-        <v>4289493</v>
+        <v>4289047</v>
       </c>
       <c r="D19" s="10">
-        <v>545401</v>
+        <v>545284</v>
       </c>
       <c r="E19" s="10">
-        <v>534012</v>
+        <v>534371</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="10">
-        <v>6078</v>
+        <v>6015</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -1805,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="J19" s="10">
-        <v>4893432</v>
+        <v>4891311</v>
       </c>
       <c r="K19" s="10">
-        <v>4829584</v>
+        <v>4829434</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,22 +1816,22 @@
         <v>27</v>
       </c>
       <c r="B20" s="10">
-        <v>4931522</v>
+        <v>4935565</v>
       </c>
       <c r="C20" s="10">
-        <v>4887867</v>
+        <v>4891799</v>
       </c>
       <c r="D20" s="10">
-        <v>623551</v>
+        <v>622211</v>
       </c>
       <c r="E20" s="10">
-        <v>621090</v>
+        <v>619930</v>
       </c>
       <c r="F20" s="10">
-        <v>18658</v>
+        <v>18680</v>
       </c>
       <c r="G20" s="10">
-        <v>19121</v>
+        <v>19044</v>
       </c>
       <c r="H20" s="10">
         <v>2</v>
@@ -1840,10 +1840,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="10">
-        <v>5573733</v>
+        <v>5576458</v>
       </c>
       <c r="K20" s="10">
-        <v>5528080</v>
+        <v>5530775</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1851,22 +1851,22 @@
         <v>28</v>
       </c>
       <c r="B21" s="10">
-        <v>2677731</v>
+        <v>2677448</v>
       </c>
       <c r="C21" s="10">
-        <v>2650588</v>
+        <v>2642357</v>
       </c>
       <c r="D21" s="10">
-        <v>352987</v>
+        <v>352068</v>
       </c>
       <c r="E21" s="10">
-        <v>347410</v>
+        <v>346994</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="10">
-        <v>5642</v>
+        <v>5463</v>
       </c>
       <c r="H21" s="10">
         <v>1</v>
@@ -1875,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="J21" s="10">
-        <v>3035474</v>
+        <v>3034233</v>
       </c>
       <c r="K21" s="10">
-        <v>3003641</v>
+        <v>2994815</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,22 +1886,22 @@
         <v>29</v>
       </c>
       <c r="B22" s="8">
-        <v>9379707</v>
+        <v>9385637</v>
       </c>
       <c r="C22" s="8">
-        <v>9279251</v>
+        <v>9277055</v>
       </c>
       <c r="D22" s="8">
-        <v>1438569</v>
+        <v>1439633</v>
       </c>
       <c r="E22" s="8">
-        <v>1414715</v>
+        <v>1413196</v>
       </c>
       <c r="F22" s="8">
-        <v>113648</v>
+        <v>112910</v>
       </c>
       <c r="G22" s="8">
-        <v>126133</v>
+        <v>124491</v>
       </c>
       <c r="H22" s="8">
         <v>3</v>
@@ -1910,10 +1910,10 @@
         <v>2</v>
       </c>
       <c r="J22" s="8">
-        <v>10931927</v>
+        <v>10938183</v>
       </c>
       <c r="K22" s="8">
-        <v>10820101</v>
+        <v>10814744</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1921,22 +1921,22 @@
         <v>30</v>
       </c>
       <c r="B23" s="10">
-        <v>1369893</v>
+        <v>1371647</v>
       </c>
       <c r="C23" s="10">
-        <v>1357958</v>
+        <v>1355163</v>
       </c>
       <c r="D23" s="10">
-        <v>240159</v>
+        <v>240479</v>
       </c>
       <c r="E23" s="10">
-        <v>231806</v>
+        <v>232258</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="10">
-        <v>7762</v>
+        <v>7660</v>
       </c>
       <c r="H23" s="10">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>1616869</v>
+        <v>1618891</v>
       </c>
       <c r="K23" s="10">
-        <v>1597526</v>
+        <v>1595081</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1956,22 +1956,22 @@
         <v>31</v>
       </c>
       <c r="B24" s="10">
-        <v>1257918</v>
+        <v>1259379</v>
       </c>
       <c r="C24" s="10">
-        <v>1230445</v>
+        <v>1232457</v>
       </c>
       <c r="D24" s="10">
-        <v>234182</v>
+        <v>234438</v>
       </c>
       <c r="E24" s="10">
-        <v>229835</v>
+        <v>229769</v>
       </c>
       <c r="F24" s="10">
-        <v>25525</v>
+        <v>25523</v>
       </c>
       <c r="G24" s="10">
-        <v>24096</v>
+        <v>23965</v>
       </c>
       <c r="H24" s="10">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <v>1517625</v>
+        <v>1519340</v>
       </c>
       <c r="K24" s="10">
-        <v>1484376</v>
+        <v>1486191</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1991,22 +1991,22 @@
         <v>32</v>
       </c>
       <c r="B25" s="10">
-        <v>2368237</v>
+        <v>2369310</v>
       </c>
       <c r="C25" s="10">
-        <v>2363043</v>
+        <v>2357405</v>
       </c>
       <c r="D25" s="10">
-        <v>285596</v>
+        <v>285654</v>
       </c>
       <c r="E25" s="10">
-        <v>286204</v>
+        <v>285623</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="10">
-        <v>9845</v>
+        <v>9663</v>
       </c>
       <c r="H25" s="10">
         <v>1</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="J25" s="10">
-        <v>2661968</v>
+        <v>2662993</v>
       </c>
       <c r="K25" s="10">
-        <v>2659093</v>
+        <v>2652692</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,22 +2026,22 @@
         <v>33</v>
       </c>
       <c r="B26" s="10">
-        <v>2766552</v>
+        <v>2767181</v>
       </c>
       <c r="C26" s="10">
-        <v>2734048</v>
+        <v>2738761</v>
       </c>
       <c r="D26" s="10">
-        <v>375556</v>
+        <v>375981</v>
       </c>
       <c r="E26" s="10">
-        <v>374186</v>
+        <v>374233</v>
       </c>
       <c r="F26" s="10">
-        <v>8306</v>
+        <v>8302</v>
       </c>
       <c r="G26" s="10">
-        <v>10178</v>
+        <v>10238</v>
       </c>
       <c r="H26" s="10">
         <v>2</v>
@@ -2050,10 +2050,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>3150416</v>
+        <v>3151466</v>
       </c>
       <c r="K26" s="10">
-        <v>3118413</v>
+        <v>3123233</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2061,22 +2061,22 @@
         <v>34</v>
       </c>
       <c r="B27" s="10">
-        <v>845944</v>
+        <v>846232</v>
       </c>
       <c r="C27" s="10">
-        <v>828960</v>
+        <v>828277</v>
       </c>
       <c r="D27" s="10">
-        <v>158500</v>
+        <v>158331</v>
       </c>
       <c r="E27" s="10">
-        <v>150780</v>
+        <v>149489</v>
       </c>
       <c r="F27" s="10">
-        <v>53912</v>
+        <v>53386</v>
       </c>
       <c r="G27" s="10">
-        <v>61517</v>
+        <v>60284</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="J27" s="10">
-        <v>1058356</v>
+        <v>1057949</v>
       </c>
       <c r="K27" s="10">
-        <v>1041257</v>
+        <v>1038050</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2096,22 +2096,22 @@
         <v>35</v>
       </c>
       <c r="B28" s="10">
-        <v>375798</v>
+        <v>376206</v>
       </c>
       <c r="C28" s="10">
-        <v>375017</v>
+        <v>375444</v>
       </c>
       <c r="D28" s="10">
-        <v>72485</v>
+        <v>72654</v>
       </c>
       <c r="E28" s="10">
-        <v>71680</v>
+        <v>71763</v>
       </c>
       <c r="F28" s="10">
-        <v>7925</v>
+        <v>7915</v>
       </c>
       <c r="G28" s="10">
-        <v>8913</v>
+        <v>8927</v>
       </c>
       <c r="H28" s="10">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>456208</v>
+        <v>456775</v>
       </c>
       <c r="K28" s="10">
-        <v>455610</v>
+        <v>456134</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,22 +2131,22 @@
         <v>36</v>
       </c>
       <c r="B29" s="10">
-        <v>395365</v>
+        <v>395682</v>
       </c>
       <c r="C29" s="10">
-        <v>389780</v>
+        <v>389548</v>
       </c>
       <c r="D29" s="10">
-        <v>72091</v>
+        <v>72096</v>
       </c>
       <c r="E29" s="10">
-        <v>70224</v>
+        <v>70061</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G29" s="10">
-        <v>3822</v>
+        <v>3754</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="J29" s="10">
-        <v>470485</v>
+        <v>470769</v>
       </c>
       <c r="K29" s="10">
-        <v>463826</v>
+        <v>463363</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2166,22 +2166,22 @@
         <v>37</v>
       </c>
       <c r="B30" s="8">
-        <v>27256294</v>
+        <v>27499218</v>
       </c>
       <c r="C30" s="8">
-        <v>26811114</v>
+        <v>27054538</v>
       </c>
       <c r="D30" s="8">
-        <v>3753151</v>
+        <v>3771840</v>
       </c>
       <c r="E30" s="8">
-        <v>3701253</v>
+        <v>3718084</v>
       </c>
       <c r="F30" s="8">
-        <v>79842</v>
+        <v>79826</v>
       </c>
       <c r="G30" s="8">
-        <v>79879</v>
+        <v>79888</v>
       </c>
       <c r="H30" s="8">
         <v>13</v>
@@ -2190,10 +2190,10 @@
         <v>11</v>
       </c>
       <c r="J30" s="8">
-        <v>31089300</v>
+        <v>31350897</v>
       </c>
       <c r="K30" s="8">
-        <v>30592257</v>
+        <v>30852521</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2201,22 +2201,22 @@
         <v>38</v>
       </c>
       <c r="B31" s="10">
-        <v>419342</v>
+        <v>419537</v>
       </c>
       <c r="C31" s="10">
-        <v>415666</v>
+        <v>416681</v>
       </c>
       <c r="D31" s="10">
-        <v>53213</v>
+        <v>53185</v>
       </c>
       <c r="E31" s="10">
-        <v>53021</v>
+        <v>52452</v>
       </c>
       <c r="F31" s="10">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G31" s="10">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H31" s="10">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>0</v>
       </c>
       <c r="J31" s="10">
-        <v>473674</v>
+        <v>473842</v>
       </c>
       <c r="K31" s="10">
-        <v>469546</v>
+        <v>469993</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2236,16 +2236,16 @@
         <v>39</v>
       </c>
       <c r="B32" s="10">
-        <v>261266</v>
+        <v>261681</v>
       </c>
       <c r="C32" s="10">
-        <v>251442</v>
+        <v>251672</v>
       </c>
       <c r="D32" s="10">
-        <v>25933</v>
+        <v>25973</v>
       </c>
       <c r="E32" s="10">
-        <v>25776</v>
+        <v>25831</v>
       </c>
       <c r="F32" s="10">
         <v>1</v>
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="J32" s="10">
-        <v>287203</v>
+        <v>287658</v>
       </c>
       <c r="K32" s="10">
-        <v>277220</v>
+        <v>277505</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2271,22 +2271,22 @@
         <v>40</v>
       </c>
       <c r="B33" s="10">
-        <v>9087195</v>
+        <v>9317535</v>
       </c>
       <c r="C33" s="10">
-        <v>8937299</v>
+        <v>9163688</v>
       </c>
       <c r="D33" s="10">
-        <v>1212610</v>
+        <v>1230456</v>
       </c>
       <c r="E33" s="10">
-        <v>1185140</v>
+        <v>1202045</v>
       </c>
       <c r="F33" s="10">
-        <v>20618</v>
+        <v>20685</v>
       </c>
       <c r="G33" s="10">
-        <v>19674</v>
+        <v>19800</v>
       </c>
       <c r="H33" s="10">
         <v>2</v>
@@ -2295,10 +2295,10 @@
         <v>2</v>
       </c>
       <c r="J33" s="10">
-        <v>10320425</v>
+        <v>10568678</v>
       </c>
       <c r="K33" s="10">
-        <v>10142115</v>
+        <v>10385535</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2306,22 +2306,22 @@
         <v>41</v>
       </c>
       <c r="B34" s="10">
-        <v>4279788</v>
+        <v>4281006</v>
       </c>
       <c r="C34" s="10">
-        <v>4202964</v>
+        <v>4205210</v>
       </c>
       <c r="D34" s="10">
-        <v>577292</v>
+        <v>577640</v>
       </c>
       <c r="E34" s="10">
-        <v>564137</v>
+        <v>564187</v>
       </c>
       <c r="F34" s="10">
-        <v>19295</v>
+        <v>19298</v>
       </c>
       <c r="G34" s="10">
-        <v>20618</v>
+        <v>20478</v>
       </c>
       <c r="H34" s="10">
         <v>1</v>
@@ -2330,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>4876376</v>
+        <v>4877945</v>
       </c>
       <c r="K34" s="10">
-        <v>4787720</v>
+        <v>4789876</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2341,22 +2341,22 @@
         <v>42</v>
       </c>
       <c r="B35" s="10">
-        <v>2295373</v>
+        <v>2297920</v>
       </c>
       <c r="C35" s="10">
-        <v>2264171</v>
+        <v>2267375</v>
       </c>
       <c r="D35" s="10">
-        <v>250906</v>
+        <v>251035</v>
       </c>
       <c r="E35" s="10">
-        <v>249620</v>
+        <v>249466</v>
       </c>
       <c r="F35" s="10">
-        <v>8826</v>
+        <v>8827</v>
       </c>
       <c r="G35" s="10">
-        <v>8738</v>
+        <v>8777</v>
       </c>
       <c r="H35" s="10">
         <v>5</v>
@@ -2365,10 +2365,10 @@
         <v>5</v>
       </c>
       <c r="J35" s="10">
-        <v>2555110</v>
+        <v>2557787</v>
       </c>
       <c r="K35" s="10">
-        <v>2522534</v>
+        <v>2525623</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2376,22 +2376,22 @@
         <v>43</v>
       </c>
       <c r="B36" s="10">
-        <v>4450382</v>
+        <v>4452425</v>
       </c>
       <c r="C36" s="10">
-        <v>4347967</v>
+        <v>4350576</v>
       </c>
       <c r="D36" s="10">
-        <v>697420</v>
+        <v>697584</v>
       </c>
       <c r="E36" s="10">
-        <v>672050</v>
+        <v>671463</v>
       </c>
       <c r="F36" s="10">
-        <v>9939</v>
+        <v>9930</v>
       </c>
       <c r="G36" s="10">
-        <v>10259</v>
+        <v>10229</v>
       </c>
       <c r="H36" s="10">
         <v>1</v>
@@ -2400,10 +2400,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="10">
-        <v>5157742</v>
+        <v>5159940</v>
       </c>
       <c r="K36" s="10">
-        <v>5030277</v>
+        <v>5032269</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2411,22 +2411,22 @@
         <v>44</v>
       </c>
       <c r="B37" s="10">
-        <v>2232350</v>
+        <v>2234192</v>
       </c>
       <c r="C37" s="10">
-        <v>2195250</v>
+        <v>2195552</v>
       </c>
       <c r="D37" s="10">
-        <v>360325</v>
+        <v>360817</v>
       </c>
       <c r="E37" s="10">
-        <v>359632</v>
+        <v>359671</v>
       </c>
       <c r="F37" s="10">
-        <v>4567</v>
+        <v>4557</v>
       </c>
       <c r="G37" s="10">
-        <v>4201</v>
+        <v>4208</v>
       </c>
       <c r="H37" s="10">
         <v>0</v>
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="J37" s="10">
-        <v>2597242</v>
+        <v>2599566</v>
       </c>
       <c r="K37" s="10">
-        <v>2559083</v>
+        <v>2559431</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2446,22 +2446,22 @@
         <v>45</v>
       </c>
       <c r="B38" s="10">
-        <v>3372657</v>
+        <v>3376595</v>
       </c>
       <c r="C38" s="10">
-        <v>3338877</v>
+        <v>3341680</v>
       </c>
       <c r="D38" s="10">
-        <v>432345</v>
+        <v>432161</v>
       </c>
       <c r="E38" s="10">
-        <v>450417</v>
+        <v>450733</v>
       </c>
       <c r="F38" s="10">
-        <v>3771</v>
+        <v>3761</v>
       </c>
       <c r="G38" s="10">
-        <v>3701</v>
+        <v>3692</v>
       </c>
       <c r="H38" s="10">
         <v>1</v>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>3808774</v>
+        <v>3812518</v>
       </c>
       <c r="K38" s="10">
-        <v>3792996</v>
+        <v>3796106</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2481,22 +2481,22 @@
         <v>46</v>
       </c>
       <c r="B39" s="10">
-        <v>857941</v>
+        <v>858327</v>
       </c>
       <c r="C39" s="10">
-        <v>857478</v>
+        <v>862104</v>
       </c>
       <c r="D39" s="10">
-        <v>143107</v>
+        <v>142989</v>
       </c>
       <c r="E39" s="10">
-        <v>141460</v>
+        <v>142236</v>
       </c>
       <c r="F39" s="10">
-        <v>11706</v>
+        <v>11647</v>
       </c>
       <c r="G39" s="10">
-        <v>11828</v>
+        <v>11843</v>
       </c>
       <c r="H39" s="10">
         <v>0</v>
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="J39" s="10">
-        <v>1012754</v>
+        <v>1012963</v>
       </c>
       <c r="K39" s="10">
-        <v>1010766</v>
+        <v>1016183</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2516,22 +2516,22 @@
         <v>47</v>
       </c>
       <c r="B40" s="8">
-        <v>8333335</v>
+        <v>8316054</v>
       </c>
       <c r="C40" s="8">
-        <v>8199020</v>
+        <v>8198800</v>
       </c>
       <c r="D40" s="8">
-        <v>1383697</v>
+        <v>1380914</v>
       </c>
       <c r="E40" s="8">
-        <v>1374099</v>
+        <v>1374432</v>
       </c>
       <c r="F40" s="8">
-        <v>23662</v>
+        <v>24758</v>
       </c>
       <c r="G40" s="8">
-        <v>26082</v>
+        <v>26989</v>
       </c>
       <c r="H40" s="8">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="8">
-        <v>9740694</v>
+        <v>9721726</v>
       </c>
       <c r="K40" s="8">
-        <v>9599201</v>
+        <v>9600221</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2551,22 +2551,22 @@
         <v>48</v>
       </c>
       <c r="B41" s="10">
-        <v>2224779</v>
+        <v>2224452</v>
       </c>
       <c r="C41" s="10">
-        <v>2187188</v>
+        <v>2187238</v>
       </c>
       <c r="D41" s="10">
-        <v>368689</v>
+        <v>368824</v>
       </c>
       <c r="E41" s="10">
-        <v>364402</v>
+        <v>364185</v>
       </c>
       <c r="F41" s="10">
-        <v>8141</v>
+        <v>8133</v>
       </c>
       <c r="G41" s="10">
-        <v>7267</v>
+        <v>7259</v>
       </c>
       <c r="H41" s="10">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>2601609</v>
+        <v>2601409</v>
       </c>
       <c r="K41" s="10">
-        <v>2558857</v>
+        <v>2558682</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2586,22 +2586,22 @@
         <v>49</v>
       </c>
       <c r="B42" s="10">
-        <v>1973572</v>
+        <v>1972273</v>
       </c>
       <c r="C42" s="10">
-        <v>1950339</v>
+        <v>1950701</v>
       </c>
       <c r="D42" s="10">
-        <v>298423</v>
+        <v>298225</v>
       </c>
       <c r="E42" s="10">
-        <v>299881</v>
+        <v>299926</v>
       </c>
       <c r="F42" s="10">
-        <v>7617</v>
+        <v>7611</v>
       </c>
       <c r="G42" s="10">
-        <v>7529</v>
+        <v>7552</v>
       </c>
       <c r="H42" s="10">
         <v>0</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="J42" s="10">
-        <v>2279612</v>
+        <v>2278109</v>
       </c>
       <c r="K42" s="10">
-        <v>2257749</v>
+        <v>2258179</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,22 +2621,22 @@
         <v>50</v>
       </c>
       <c r="B43" s="10">
-        <v>1298499</v>
+        <v>1298179</v>
       </c>
       <c r="C43" s="10">
-        <v>1272943</v>
+        <v>1272740</v>
       </c>
       <c r="D43" s="10">
-        <v>237659</v>
+        <v>237818</v>
       </c>
       <c r="E43" s="10">
-        <v>232492</v>
+        <v>232480</v>
       </c>
       <c r="F43" s="10">
-        <v>6564</v>
+        <v>7661</v>
       </c>
       <c r="G43" s="10">
-        <v>10039</v>
+        <v>10924</v>
       </c>
       <c r="H43" s="10">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>1542722</v>
+        <v>1543658</v>
       </c>
       <c r="K43" s="10">
-        <v>1515474</v>
+        <v>1516144</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2656,22 +2656,22 @@
         <v>51</v>
       </c>
       <c r="B44" s="10">
-        <v>2836485</v>
+        <v>2821150</v>
       </c>
       <c r="C44" s="10">
-        <v>2788550</v>
+        <v>2788121</v>
       </c>
       <c r="D44" s="10">
-        <v>478926</v>
+        <v>476047</v>
       </c>
       <c r="E44" s="10">
-        <v>477324</v>
+        <v>477841</v>
       </c>
       <c r="F44" s="10">
-        <v>1340</v>
+        <v>1353</v>
       </c>
       <c r="G44" s="10">
-        <v>1247</v>
+        <v>1254</v>
       </c>
       <c r="H44" s="10">
         <v>0</v>
@@ -2680,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="J44" s="10">
-        <v>3316751</v>
+        <v>3298550</v>
       </c>
       <c r="K44" s="10">
-        <v>3267121</v>
+        <v>3267216</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2691,22 +2691,22 @@
         <v>52</v>
       </c>
       <c r="B45" s="8">
-        <v>15673388</v>
+        <v>15605765</v>
       </c>
       <c r="C45" s="8">
-        <v>15524160</v>
+        <v>15436975</v>
       </c>
       <c r="D45" s="8">
-        <v>2198353</v>
+        <v>2190098</v>
       </c>
       <c r="E45" s="8">
-        <v>2202850</v>
+        <v>2188221</v>
       </c>
       <c r="F45" s="8">
-        <v>181549</v>
+        <v>179382</v>
       </c>
       <c r="G45" s="8">
-        <v>186228</v>
+        <v>183025</v>
       </c>
       <c r="H45" s="8">
         <v>6</v>
@@ -2715,10 +2715,10 @@
         <v>6</v>
       </c>
       <c r="J45" s="8">
-        <v>18053296</v>
+        <v>17975251</v>
       </c>
       <c r="K45" s="8">
-        <v>17913244</v>
+        <v>17808227</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2726,22 +2726,22 @@
         <v>53</v>
       </c>
       <c r="B46" s="10">
-        <v>1373755</v>
+        <v>1373063</v>
       </c>
       <c r="C46" s="10">
-        <v>1359372</v>
+        <v>1358226</v>
       </c>
       <c r="D46" s="10">
-        <v>190543</v>
+        <v>190520</v>
       </c>
       <c r="E46" s="10">
-        <v>188885</v>
+        <v>188765</v>
       </c>
       <c r="F46" s="10">
-        <v>38135</v>
+        <v>36104</v>
       </c>
       <c r="G46" s="10">
-        <v>38355</v>
+        <v>36287</v>
       </c>
       <c r="H46" s="10">
         <v>2</v>
@@ -2750,10 +2750,10 @@
         <v>2</v>
       </c>
       <c r="J46" s="10">
-        <v>1602435</v>
+        <v>1599689</v>
       </c>
       <c r="K46" s="10">
-        <v>1586614</v>
+        <v>1583280</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,22 +2761,22 @@
         <v>54</v>
       </c>
       <c r="B47" s="10">
-        <v>2070227</v>
+        <v>2069705</v>
       </c>
       <c r="C47" s="10">
-        <v>2048992</v>
+        <v>2047037</v>
       </c>
       <c r="D47" s="10">
-        <v>291383</v>
+        <v>291306</v>
       </c>
       <c r="E47" s="10">
-        <v>299309</v>
+        <v>299075</v>
       </c>
       <c r="F47" s="10">
-        <v>18517</v>
+        <v>18509</v>
       </c>
       <c r="G47" s="10">
-        <v>19704</v>
+        <v>19722</v>
       </c>
       <c r="H47" s="10">
         <v>1</v>
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>2380128</v>
+        <v>2379521</v>
       </c>
       <c r="K47" s="10">
-        <v>2368006</v>
+        <v>2365835</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2796,22 +2796,22 @@
         <v>55</v>
       </c>
       <c r="B48" s="10">
-        <v>1753389</v>
+        <v>1752769</v>
       </c>
       <c r="C48" s="10">
-        <v>1728031</v>
+        <v>1728627</v>
       </c>
       <c r="D48" s="10">
-        <v>282724</v>
+        <v>282855</v>
       </c>
       <c r="E48" s="10">
-        <v>278921</v>
+        <v>279015</v>
       </c>
       <c r="F48" s="10">
-        <v>17991</v>
+        <v>17980</v>
       </c>
       <c r="G48" s="10">
-        <v>18551</v>
+        <v>18513</v>
       </c>
       <c r="H48" s="10">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="J48" s="10">
-        <v>2054104</v>
+        <v>2053604</v>
       </c>
       <c r="K48" s="10">
-        <v>2025503</v>
+        <v>2026155</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2831,22 +2831,22 @@
         <v>56</v>
       </c>
       <c r="B49" s="10">
-        <v>10476017</v>
+        <v>10410228</v>
       </c>
       <c r="C49" s="10">
-        <v>10387765</v>
+        <v>10303085</v>
       </c>
       <c r="D49" s="10">
-        <v>1433703</v>
+        <v>1425417</v>
       </c>
       <c r="E49" s="10">
-        <v>1435735</v>
+        <v>1421366</v>
       </c>
       <c r="F49" s="10">
-        <v>106906</v>
+        <v>106789</v>
       </c>
       <c r="G49" s="10">
-        <v>109618</v>
+        <v>108503</v>
       </c>
       <c r="H49" s="10">
         <v>3</v>
@@ -2855,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="J49" s="10">
-        <v>12016629</v>
+        <v>11942437</v>
       </c>
       <c r="K49" s="10">
-        <v>11933121</v>
+        <v>11832957</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2866,22 +2866,22 @@
         <v>57</v>
       </c>
       <c r="B50" s="8">
-        <v>9543894</v>
+        <v>9565686</v>
       </c>
       <c r="C50" s="8">
-        <v>9423983</v>
+        <v>9441276</v>
       </c>
       <c r="D50" s="8">
-        <v>1369970</v>
+        <v>1370470</v>
       </c>
       <c r="E50" s="8">
-        <v>1375482</v>
+        <v>1375153</v>
       </c>
       <c r="F50" s="8">
-        <v>88651</v>
+        <v>86218</v>
       </c>
       <c r="G50" s="8">
-        <v>96420</v>
+        <v>93281</v>
       </c>
       <c r="H50" s="8">
         <v>4</v>
@@ -2890,10 +2890,10 @@
         <v>4</v>
       </c>
       <c r="J50" s="8">
-        <v>11002519</v>
+        <v>11022378</v>
       </c>
       <c r="K50" s="8">
-        <v>10895889</v>
+        <v>10909714</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2901,22 +2901,22 @@
         <v>58</v>
       </c>
       <c r="B51" s="10">
-        <v>2721084</v>
+        <v>2731226</v>
       </c>
       <c r="C51" s="10">
-        <v>2694109</v>
+        <v>2704034</v>
       </c>
       <c r="D51" s="10">
-        <v>316598</v>
+        <v>316882</v>
       </c>
       <c r="E51" s="10">
-        <v>315479</v>
+        <v>315754</v>
       </c>
       <c r="F51" s="10">
-        <v>6782</v>
+        <v>6850</v>
       </c>
       <c r="G51" s="10">
-        <v>7793</v>
+        <v>7718</v>
       </c>
       <c r="H51" s="10">
         <v>1</v>
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="J51" s="10">
-        <v>3044465</v>
+        <v>3054959</v>
       </c>
       <c r="K51" s="10">
-        <v>3017382</v>
+        <v>3027507</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2936,22 +2936,22 @@
         <v>59</v>
       </c>
       <c r="B52" s="10">
-        <v>2264550</v>
+        <v>2267575</v>
       </c>
       <c r="C52" s="10">
-        <v>2233831</v>
+        <v>2237004</v>
       </c>
       <c r="D52" s="10">
-        <v>358667</v>
+        <v>357905</v>
       </c>
       <c r="E52" s="10">
-        <v>366675</v>
+        <v>365471</v>
       </c>
       <c r="F52" s="10">
-        <v>14194</v>
+        <v>14035</v>
       </c>
       <c r="G52" s="10">
-        <v>16344</v>
+        <v>16029</v>
       </c>
       <c r="H52" s="10">
         <v>1</v>
@@ -2960,10 +2960,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="10">
-        <v>2637412</v>
+        <v>2639516</v>
       </c>
       <c r="K52" s="10">
-        <v>2616851</v>
+        <v>2618505</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2971,22 +2971,22 @@
         <v>60</v>
       </c>
       <c r="B53" s="10">
-        <v>716795</v>
+        <v>718298</v>
       </c>
       <c r="C53" s="10">
-        <v>704366</v>
+        <v>705038</v>
       </c>
       <c r="D53" s="10">
-        <v>107322</v>
+        <v>107460</v>
       </c>
       <c r="E53" s="10">
-        <v>106616</v>
+        <v>106347</v>
       </c>
       <c r="F53" s="10">
-        <v>28216</v>
+        <v>27976</v>
       </c>
       <c r="G53" s="10">
-        <v>27799</v>
+        <v>27510</v>
       </c>
       <c r="H53" s="10">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>852333</v>
+        <v>853734</v>
       </c>
       <c r="K53" s="10">
-        <v>838781</v>
+        <v>838895</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,22 +3006,22 @@
         <v>61</v>
       </c>
       <c r="B54" s="10">
-        <v>500800</v>
+        <v>501466</v>
       </c>
       <c r="C54" s="10">
-        <v>493599</v>
+        <v>493425</v>
       </c>
       <c r="D54" s="10">
-        <v>107358</v>
+        <v>107439</v>
       </c>
       <c r="E54" s="10">
-        <v>104652</v>
+        <v>104644</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="10">
-        <v>10784</v>
+        <v>8983</v>
       </c>
       <c r="H54" s="10">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>616640</v>
+        <v>615577</v>
       </c>
       <c r="K54" s="10">
-        <v>609035</v>
+        <v>607052</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3041,22 +3041,22 @@
         <v>62</v>
       </c>
       <c r="B55" s="10">
-        <v>1144434</v>
+        <v>1147705</v>
       </c>
       <c r="C55" s="10">
-        <v>1128241</v>
+        <v>1130403</v>
       </c>
       <c r="D55" s="10">
-        <v>161689</v>
+        <v>162057</v>
       </c>
       <c r="E55" s="10">
-        <v>160100</v>
+        <v>160589</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="10">
-        <v>3829</v>
+        <v>3495</v>
       </c>
       <c r="H55" s="10">
         <v>1</v>
@@ -3065,10 +3065,10 @@
         <v>1</v>
       </c>
       <c r="J55" s="10">
-        <v>1309337</v>
+        <v>1312910</v>
       </c>
       <c r="K55" s="10">
-        <v>1292171</v>
+        <v>1294488</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3076,22 +3076,22 @@
         <v>63</v>
       </c>
       <c r="B56" s="10">
-        <v>889559</v>
+        <v>889956</v>
       </c>
       <c r="C56" s="10">
-        <v>873471</v>
+        <v>873083</v>
       </c>
       <c r="D56" s="10">
-        <v>138326</v>
+        <v>138271</v>
       </c>
       <c r="E56" s="10">
-        <v>142223</v>
+        <v>142290</v>
       </c>
       <c r="F56" s="10">
-        <v>8555</v>
+        <v>8505</v>
       </c>
       <c r="G56" s="10">
-        <v>9427</v>
+        <v>9373</v>
       </c>
       <c r="H56" s="10">
         <v>0</v>
@@ -3100,10 +3100,10 @@
         <v>0</v>
       </c>
       <c r="J56" s="10">
-        <v>1036440</v>
+        <v>1036732</v>
       </c>
       <c r="K56" s="10">
-        <v>1025121</v>
+        <v>1024746</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,22 +3111,22 @@
         <v>64</v>
       </c>
       <c r="B57" s="10">
-        <v>1036061</v>
+        <v>1038502</v>
       </c>
       <c r="C57" s="10">
-        <v>1027411</v>
+        <v>1029529</v>
       </c>
       <c r="D57" s="10">
-        <v>121714</v>
+        <v>121919</v>
       </c>
       <c r="E57" s="10">
-        <v>122041</v>
+        <v>122415</v>
       </c>
       <c r="F57" s="10">
-        <v>9502</v>
+        <v>9466</v>
       </c>
       <c r="G57" s="10">
-        <v>9769</v>
+        <v>9668</v>
       </c>
       <c r="H57" s="10">
         <v>1</v>
@@ -3135,10 +3135,10 @@
         <v>1</v>
       </c>
       <c r="J57" s="10">
-        <v>1167278</v>
+        <v>1169888</v>
       </c>
       <c r="K57" s="10">
-        <v>1159222</v>
+        <v>1161613</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3146,22 +3146,22 @@
         <v>65</v>
       </c>
       <c r="B58" s="10">
-        <v>270611</v>
+        <v>270958</v>
       </c>
       <c r="C58" s="10">
-        <v>268955</v>
+        <v>268760</v>
       </c>
       <c r="D58" s="10">
-        <v>58296</v>
+        <v>58537</v>
       </c>
       <c r="E58" s="10">
-        <v>57696</v>
+        <v>57643</v>
       </c>
       <c r="F58" s="10">
-        <v>9707</v>
+        <v>9567</v>
       </c>
       <c r="G58" s="10">
-        <v>10675</v>
+        <v>10505</v>
       </c>
       <c r="H58" s="10">
         <v>0</v>
@@ -3170,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="10">
-        <v>338614</v>
+        <v>339062</v>
       </c>
       <c r="K58" s="10">
-        <v>337326</v>
+        <v>336908</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3181,22 +3181,22 @@
         <v>66</v>
       </c>
       <c r="B59" s="8">
-        <v>18163856</v>
+        <v>17937749</v>
       </c>
       <c r="C59" s="8">
-        <v>18275848</v>
+        <v>17557583</v>
       </c>
       <c r="D59" s="8">
-        <v>2296874</v>
+        <v>2269533</v>
       </c>
       <c r="E59" s="8">
-        <v>2312534</v>
+        <v>2224868</v>
       </c>
       <c r="F59" s="8">
-        <v>203591</v>
+        <v>194284</v>
       </c>
       <c r="G59" s="8">
-        <v>209101</v>
+        <v>191283</v>
       </c>
       <c r="H59" s="8">
         <v>23</v>
@@ -3205,10 +3205,10 @@
         <v>21</v>
       </c>
       <c r="J59" s="8">
-        <v>20664344</v>
+        <v>20401589</v>
       </c>
       <c r="K59" s="8">
-        <v>20797504</v>
+        <v>19973755</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3216,22 +3216,22 @@
         <v>67</v>
       </c>
       <c r="B60" s="10">
-        <v>13464514</v>
+        <v>13235820</v>
       </c>
       <c r="C60" s="10">
-        <v>13614795</v>
+        <v>12930586</v>
       </c>
       <c r="D60" s="10">
-        <v>1682912</v>
+        <v>1654826</v>
       </c>
       <c r="E60" s="10">
-        <v>1713815</v>
+        <v>1629554</v>
       </c>
       <c r="F60" s="10">
-        <v>148680</v>
+        <v>142135</v>
       </c>
       <c r="G60" s="10">
-        <v>152564</v>
+        <v>138175</v>
       </c>
       <c r="H60" s="10">
         <v>15</v>
@@ -3240,10 +3240,10 @@
         <v>13</v>
       </c>
       <c r="J60" s="10">
-        <v>15296121</v>
+        <v>15032796</v>
       </c>
       <c r="K60" s="10">
-        <v>15481187</v>
+        <v>14698328</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,22 +3251,22 @@
         <v>68</v>
       </c>
       <c r="B61" s="10">
-        <v>1721278</v>
+        <v>1722958</v>
       </c>
       <c r="C61" s="10">
-        <v>1694135</v>
+        <v>1693083</v>
       </c>
       <c r="D61" s="10">
-        <v>235874</v>
+        <v>236160</v>
       </c>
       <c r="E61" s="10">
-        <v>230093</v>
+        <v>229977</v>
       </c>
       <c r="F61" s="10">
-        <v>26270</v>
+        <v>24041</v>
       </c>
       <c r="G61" s="10">
-        <v>26689</v>
+        <v>24592</v>
       </c>
       <c r="H61" s="10">
         <v>2</v>
@@ -3275,10 +3275,10 @@
         <v>2</v>
       </c>
       <c r="J61" s="10">
-        <v>1983424</v>
+        <v>1983161</v>
       </c>
       <c r="K61" s="10">
-        <v>1950919</v>
+        <v>1947654</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3286,22 +3286,22 @@
         <v>69</v>
       </c>
       <c r="B62" s="10">
-        <v>2978064</v>
+        <v>2978971</v>
       </c>
       <c r="C62" s="10">
-        <v>2966918</v>
+        <v>2933914</v>
       </c>
       <c r="D62" s="10">
-        <v>378088</v>
+        <v>378547</v>
       </c>
       <c r="E62" s="10">
-        <v>368626</v>
+        <v>365337</v>
       </c>
       <c r="F62" s="10">
-        <v>28641</v>
+        <v>28108</v>
       </c>
       <c r="G62" s="10">
-        <v>29848</v>
+        <v>28516</v>
       </c>
       <c r="H62" s="10">
         <v>6</v>
@@ -3310,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="J62" s="10">
-        <v>3384799</v>
+        <v>3385632</v>
       </c>
       <c r="K62" s="10">
-        <v>3365398</v>
+        <v>3327773</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3321,16 +3321,16 @@
         <v>70</v>
       </c>
       <c r="B63" s="8">
-        <v>716317</v>
+        <v>716407</v>
       </c>
       <c r="C63" s="8">
-        <v>712752</v>
+        <v>711982</v>
       </c>
       <c r="D63" s="8">
-        <v>114280</v>
+        <v>114307</v>
       </c>
       <c r="E63" s="8">
-        <v>111489</v>
+        <v>111230</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>19</v>
@@ -3345,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <v>832762</v>
+        <v>832859</v>
       </c>
       <c r="K63" s="8">
-        <v>826342</v>
+        <v>825306</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3356,16 +3356,16 @@
         <v>71</v>
       </c>
       <c r="B64" s="10">
-        <v>285285</v>
+        <v>285045</v>
       </c>
       <c r="C64" s="10">
-        <v>284050</v>
+        <v>283136</v>
       </c>
       <c r="D64" s="10">
-        <v>52969</v>
+        <v>52950</v>
       </c>
       <c r="E64" s="10">
-        <v>50912</v>
+        <v>50625</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>19</v>
@@ -3380,10 +3380,10 @@
         <v>0</v>
       </c>
       <c r="J64" s="10">
-        <v>339623</v>
+        <v>339346</v>
       </c>
       <c r="K64" s="10">
-        <v>336294</v>
+        <v>335076</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3391,22 +3391,22 @@
         <v>72</v>
       </c>
       <c r="B65" s="10">
-        <v>431032</v>
+        <v>431362</v>
       </c>
       <c r="C65" s="10">
-        <v>428702</v>
+        <v>428846</v>
       </c>
       <c r="D65" s="10">
-        <v>61311</v>
+        <v>61357</v>
       </c>
       <c r="E65" s="10">
-        <v>60577</v>
+        <v>60605</v>
       </c>
       <c r="F65" s="10">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G65" s="10">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="H65" s="10">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="J65" s="10">
-        <v>493139</v>
+        <v>493513</v>
       </c>
       <c r="K65" s="10">
-        <v>490048</v>
+        <v>490230</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3426,22 +3426,22 @@
         <v>73</v>
       </c>
       <c r="B66" s="8">
-        <v>131335608</v>
+        <v>131340346</v>
       </c>
       <c r="C66" s="8">
-        <v>130277004</v>
+        <v>129722466</v>
       </c>
       <c r="D66" s="8">
-        <v>18195532</v>
+        <v>18176753</v>
       </c>
       <c r="E66" s="8">
-        <v>18087524</v>
+        <v>17995604</v>
       </c>
       <c r="F66" s="8">
-        <v>813568</v>
+        <v>799957</v>
       </c>
       <c r="G66" s="8">
-        <v>851293</v>
+        <v>825647</v>
       </c>
       <c r="H66" s="8">
         <v>83</v>
@@ -3450,10 +3450,10 @@
         <v>78</v>
       </c>
       <c r="J66" s="8">
-        <v>150344791</v>
+        <v>150317139</v>
       </c>
       <c r="K66" s="8">
-        <v>149215899</v>
+        <v>148543795</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
